--- a/public/data/sosial/[Metode Baru] Indeks Pembangunan Manusia menurut Provinsi, 2019-2022.xlsx
+++ b/public/data/sosial/[Metode Baru] Indeks Pembangunan Manusia menurut Provinsi, 2019-2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rachmatiah\Sosial_Kasulampua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\kasulampua\public\data\sosial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="8510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,7 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -380,34 +389,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -749,371 +765,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A4" sqref="A4:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7">
         <v>2019</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E15" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E16" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E17" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E19" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:E4 C5:E21 C24:E24 C22:E22 C23:E23 A5:A21 A3:A4" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:E3 C4:E19 A4:A19 A2:A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>